--- a/Mifos Automation Excels/Client/2472-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2472-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-CASH-Makerepayment2.xlsx
@@ -164,19 +164,19 @@
     <t>$ 5,000</t>
   </si>
   <si>
-    <t>$ 813.75</t>
-  </si>
-  <si>
-    <t>$ 73.97</t>
-  </si>
-  <si>
-    <t>$ 887.72</t>
-  </si>
-  <si>
-    <t>$ 864.71</t>
-  </si>
-  <si>
-    <t>$ 23.01</t>
+    <t>$ 866.78</t>
+  </si>
+  <si>
+    <t>$ 96.99</t>
+  </si>
+  <si>
+    <t>$ 963.77</t>
+  </si>
+  <si>
+    <t>$ 870.69</t>
+  </si>
+  <si>
+    <t>$ 93.08</t>
   </si>
 </sst>
 </file>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -319,6 +319,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,7 +625,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +647,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="13">
-        <v>42064</v>
+        <v>42095</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +660,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,14 +699,14 @@
         <v>10000</v>
       </c>
       <c r="B2" s="9">
-        <v>1678.46</v>
+        <v>1737.47</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>8321.5400000000009</v>
+        <v>8262.5300000000007</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -713,10 +715,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>560.24</v>
+        <v>610.33000000000004</v>
       </c>
       <c r="B3" s="6">
-        <v>96.98</v>
+        <v>190.07</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>463.26</v>
+        <v>420.26</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -779,10 +781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,101 +883,106 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>45</v>
-      </c>
-      <c r="C3" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="7">
-        <v>42050</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="6">
-        <v>813.75</v>
-      </c>
-      <c r="G3" s="9">
-        <v>4186.25</v>
-      </c>
-      <c r="H3" s="6">
-        <v>73.97</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L3" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6">
+        <v>59</v>
+      </c>
       <c r="C4" s="7">
         <v>42064</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8">
-        <v>5000</v>
-      </c>
-      <c r="H4" s="6"/>
+      <c r="D4" s="7">
+        <v>42064</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="6">
+        <v>866.78</v>
+      </c>
+      <c r="G4" s="9">
+        <v>9133.2199999999993</v>
+      </c>
+      <c r="H4" s="6">
+        <v>96.99</v>
+      </c>
       <c r="I4" s="6">
         <v>0</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
       <c r="K4" s="6">
-        <v>0</v>
+        <v>963.77</v>
       </c>
       <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="P4" s="6"/>
+        <v>963.77</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="D5" s="7">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="6">
-        <v>864.71</v>
+        <v>870.69</v>
       </c>
       <c r="G5" s="9">
-        <v>8321.5400000000009</v>
+        <v>8262.5300000000007</v>
       </c>
       <c r="H5" s="6">
-        <v>23.01</v>
+        <v>93.08</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -984,15 +991,18 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="L5" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
       </c>
       <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
@@ -1004,21 +1014,21 @@
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>802.91</v>
+        <v>882.28</v>
       </c>
       <c r="G6" s="9">
-        <v>7518.63</v>
+        <v>7380.25</v>
       </c>
       <c r="H6" s="6">
-        <v>84.81</v>
+        <v>81.489999999999995</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1027,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1038,8 +1048,11 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
       <c r="P6" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1047,21 +1060,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>813.56</v>
+        <v>888.55</v>
       </c>
       <c r="G7" s="9">
-        <v>6705.07</v>
+        <v>6491.7</v>
       </c>
       <c r="H7" s="6">
-        <v>74.16</v>
+        <v>75.22</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1070,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -1081,8 +1094,11 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
       <c r="P7" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1090,21 +1106,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>819.38</v>
+        <v>899.74</v>
       </c>
       <c r="G8" s="9">
-        <v>5885.69</v>
+        <v>5591.96</v>
       </c>
       <c r="H8" s="6">
-        <v>68.34</v>
+        <v>64.03</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1113,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1124,8 +1140,11 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
       <c r="P8" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1133,21 +1152,21 @@
         <v>6</v>
       </c>
       <c r="B9" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>829.67</v>
+        <v>906.78</v>
       </c>
       <c r="G9" s="9">
-        <v>5056.0200000000004</v>
+        <v>4685.18</v>
       </c>
       <c r="H9" s="6">
-        <v>58.05</v>
+        <v>56.99</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1156,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1167,8 +1186,11 @@
       <c r="N9" s="6">
         <v>0</v>
       </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
       <c r="P9" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1179,18 +1201,18 @@
         <v>31</v>
       </c>
       <c r="C10" s="7">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>836.19</v>
+        <v>916.02</v>
       </c>
       <c r="G10" s="9">
-        <v>4219.83</v>
+        <v>3769.16</v>
       </c>
       <c r="H10" s="6">
-        <v>51.53</v>
+        <v>47.75</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1199,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -1210,8 +1232,11 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
       <c r="P10" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1219,21 +1244,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>844.71</v>
+        <v>926.59</v>
       </c>
       <c r="G11" s="9">
-        <v>3375.12</v>
+        <v>2842.57</v>
       </c>
       <c r="H11" s="6">
-        <v>43.01</v>
+        <v>37.18</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1242,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -1253,8 +1278,11 @@
       <c r="N11" s="6">
         <v>0</v>
       </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
       <c r="P11" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1262,21 +1290,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>854.43</v>
+        <v>934.8</v>
       </c>
       <c r="G12" s="9">
-        <v>2520.69</v>
+        <v>1907.77</v>
       </c>
       <c r="H12" s="6">
-        <v>33.29</v>
+        <v>28.97</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1285,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -1296,8 +1324,11 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
       <c r="P12" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1305,21 +1336,21 @@
         <v>10</v>
       </c>
       <c r="B13" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>862.03</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1658.66</v>
+        <v>944.95</v>
+      </c>
+      <c r="G13" s="6">
+        <v>962.82</v>
       </c>
       <c r="H13" s="6">
-        <v>25.69</v>
+        <v>18.82</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1328,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -1339,8 +1370,11 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
       <c r="P13" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1348,21 +1382,21 @@
         <v>11</v>
       </c>
       <c r="B14" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>871.36</v>
+        <v>962.82</v>
       </c>
       <c r="G14" s="6">
-        <v>787.3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>16.36</v>
+        <v>9.81</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1371,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>887.72</v>
+        <v>972.63</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1382,51 +1416,11 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
       <c r="P14" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7">
-        <v>42370</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
-        <v>787.3</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>8.02</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>795.32</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>795.32</v>
+        <v>972.63</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1434,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,25 +1486,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>4570</v>
+        <v>64</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="7">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="F2" s="6">
-        <v>864.71</v>
+        <v>870.69</v>
       </c>
       <c r="G2" s="6">
-        <v>23.01</v>
+        <v>93.08</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1519,14 +1513,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="9">
-        <v>8321.5400000000009</v>
+        <v>8262.5300000000007</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>4566</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -1553,32 +1547,32 @@
         <v>0</v>
       </c>
       <c r="J3" s="9">
-        <v>9186.25</v>
+        <v>9133.2199999999993</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>4564</v>
+        <v>59</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="7">
-        <v>42050</v>
+        <v>42064</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="6">
-        <v>887.72</v>
+        <v>963.77</v>
       </c>
       <c r="F4" s="6">
-        <v>813.75</v>
+        <v>866.78</v>
       </c>
       <c r="G4" s="6">
-        <v>73.97</v>
+        <v>96.99</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -1587,14 +1581,14 @@
         <v>0</v>
       </c>
       <c r="J4" s="9">
-        <v>4186.25</v>
+        <v>4133.22</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4560</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -1742,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:I4"/>
@@ -1761,7 +1755,7 @@
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -1790,7 +1784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>151</v>
       </c>
@@ -1812,11 +1806,12 @@
       <c r="G2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>152</v>
       </c>
@@ -1838,11 +1833,12 @@
       <c r="G3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>154</v>
       </c>
@@ -1864,9 +1860,18 @@
       <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="17" t="s">
         <v>49</v>
       </c>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1987,7 +1992,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,7 +2060,8 @@
       <c r="G2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2081,7 +2087,8 @@
       <c r="G3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2107,9 +2114,10 @@
       <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="I4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2472-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2472-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-CASH-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -182,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,6 +336,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -378,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,9 +419,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,6 +471,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -781,10 +823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,12 +844,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,17 +890,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -884,8 +928,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -912,8 +957,9 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -951,17 +997,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -999,17 +1046,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1045,17 +1093,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1091,17 +1140,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1137,17 +1187,18 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1183,17 +1234,18 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1229,17 +1281,18 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1275,17 +1328,18 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
+      <c r="N11" s="6"/>
       <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1321,17 +1375,18 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1367,17 +1422,18 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>963.77</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1413,13 +1469,14 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="6">
         <v>0</v>
       </c>
       <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>972.63</v>
       </c>
     </row>
@@ -1991,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
